--- a/Python Language/Projects/Project-6_Extract_CGPA_&_Rolls/Main.Files/NRC.xlsx
+++ b/Python Language/Projects/Project-6_Extract_CGPA_&_Rolls/Main.Files/NRC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRO GADEGT\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codeing\Python Language\Projects\Project-6_Extract_CGPA_&amp;_Rolls\Main.Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A1CB96-59EA-4B17-9427-6240DE647BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0BBF76-01B0-4D99-9FD7-89237CF7D890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
   <si>
     <t>MEHEDI HASAN RANA</t>
   </si>
@@ -42,9 +42,6 @@
     <t>MD.RAFIUL ISLAM</t>
   </si>
   <si>
-    <t>TAHRIMA HOQUE</t>
-  </si>
-  <si>
     <t>ABRAR ABU HAMI</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>JAHID</t>
   </si>
   <si>
-    <t>HAPPY AKTER MIM</t>
-  </si>
-  <si>
     <t>FATEMA -TUJ- SULTANA</t>
   </si>
   <si>
@@ -144,9 +138,6 @@
     <t>MAHIN HOSSAIN</t>
   </si>
   <si>
-    <t>SWAPNAAKTER</t>
-  </si>
-  <si>
     <t>SAYEL SAYED</t>
   </si>
   <si>
@@ -160,9 +151,6 @@
   </si>
   <si>
     <t>MD. MEHEDUL ISLAM</t>
-  </si>
-  <si>
-    <t>IRIN JAMAN MUKTA</t>
   </si>
   <si>
     <t>MUHAMMAD KHALID HASAN MILON</t>
@@ -218,37 +206,32 @@
     <t xml:space="preserve">              A</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">        T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/ 2.69</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">             A</t>
+  </si>
+  <si>
+    <t>Md. Mahi Romjan</t>
+  </si>
+  <si>
+    <t>Muzahidul Islam Saim</t>
+  </si>
+  <si>
+    <t>Md. Alif mia</t>
+  </si>
+  <si>
+    <t>Rifat</t>
+  </si>
+  <si>
+    <t>Rasibul Hasan</t>
+  </si>
+  <si>
+    <t>3rd Semester</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,12 +255,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Calibri "/>
     </font>
   </fonts>
   <fills count="2">
@@ -288,7 +274,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -296,12 +282,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,34 +591,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="31.36328125" customWidth="1"/>
     <col min="3" max="3" width="16.36328125" customWidth="1"/>
     <col min="4" max="4" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -617,13 +630,13 @@
         <v>452068</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -631,71 +644,71 @@
         <v>452074</v>
       </c>
       <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1">
+      <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" s="4">
+        <v>635666</v>
+      </c>
+      <c r="C4">
+        <v>3.1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>652806</v>
       </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>652808</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>3.75</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>652810</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>3.23</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>2.99</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>5</v>
-      </c>
-      <c r="B7">
-        <v>652815</v>
-      </c>
-      <c r="C7">
-        <v>3.43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
       </c>
       <c r="B8">
         <v>652817</v>
@@ -707,9 +720,9 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>652818</v>
@@ -721,9 +734,9 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>652819</v>
@@ -735,9 +748,9 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>652821</v>
@@ -749,9 +762,9 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>652822</v>
@@ -763,9 +776,9 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>652824</v>
@@ -777,23 +790,23 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>652827</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>652828</v>
@@ -805,9 +818,9 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>652829</v>
@@ -819,9 +832,9 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>652830</v>
@@ -833,9 +846,9 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>652831</v>
@@ -847,466 +860,480 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>652833</v>
+      </c>
+      <c r="C19">
+        <v>3.38</v>
+      </c>
+      <c r="D19">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>652832</v>
-      </c>
-      <c r="C19">
-        <v>3.35</v>
-      </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>652834</v>
+      </c>
+      <c r="C20">
+        <v>2.95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>652833</v>
-      </c>
-      <c r="C20">
-        <v>3.38</v>
-      </c>
-      <c r="D20">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>652836</v>
+      </c>
+      <c r="C21">
+        <v>2.88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>652834</v>
-      </c>
-      <c r="C21">
+      <c r="B22">
+        <v>652837</v>
+      </c>
+      <c r="C22">
+        <v>3.08</v>
+      </c>
+      <c r="D22">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>652838</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>652839</v>
+      </c>
+      <c r="C24">
+        <v>2.9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>652841</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>652842</v>
+      </c>
+      <c r="C26">
+        <v>3.53</v>
+      </c>
+      <c r="D26">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>652843</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>652846</v>
+      </c>
+      <c r="C28">
+        <v>3.43</v>
+      </c>
+      <c r="D28">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>652847</v>
+      </c>
+      <c r="C29">
+        <v>3.2</v>
+      </c>
+      <c r="D29">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>652848</v>
+      </c>
+      <c r="C30">
+        <v>3.43</v>
+      </c>
+      <c r="D30">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>652853</v>
+      </c>
+      <c r="C31">
+        <v>2.93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>652854</v>
+      </c>
+      <c r="C32">
+        <v>3.13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>652855</v>
+      </c>
+      <c r="C33">
+        <v>3.5</v>
+      </c>
+      <c r="D33">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>652856</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>652857</v>
+      </c>
+      <c r="C35">
+        <v>3.03</v>
+      </c>
+      <c r="D35">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>652858</v>
+      </c>
+      <c r="C36">
+        <v>3.1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>652860</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>652864</v>
+      </c>
+      <c r="C38">
+        <v>3.13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>652865</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>652867</v>
+      </c>
+      <c r="C40">
+        <v>3.5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>652868</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>652869</v>
+      </c>
+      <c r="C42">
+        <v>3.3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>652870</v>
+      </c>
+      <c r="C43">
+        <v>3.13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>652877</v>
+      </c>
+      <c r="C44">
         <v>2.95</v>
       </c>
-      <c r="D21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>652836</v>
-      </c>
-      <c r="C22">
-        <v>2.88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>652837</v>
-      </c>
-      <c r="C23">
-        <v>3.08</v>
-      </c>
-      <c r="D23">
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>652838</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>652839</v>
-      </c>
-      <c r="C25">
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>652881</v>
+      </c>
+      <c r="C45">
+        <v>3.1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>652883</v>
+      </c>
+      <c r="C46">
+        <v>3.3</v>
+      </c>
+      <c r="D46">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>652884</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>652885</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1">
+      <c r="A49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="2">
+        <v>676956</v>
+      </c>
+      <c r="C49">
+        <v>3.1</v>
+      </c>
+      <c r="D49">
         <v>2.9</v>
       </c>
-      <c r="D25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>652841</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>652842</v>
-      </c>
-      <c r="C27">
-        <v>3.53</v>
-      </c>
-      <c r="D27">
+    </row>
+    <row r="50" spans="1:4" ht="15" thickBot="1">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="1">
+        <v>645107</v>
+      </c>
+      <c r="C50">
+        <v>3.3</v>
+      </c>
+      <c r="D50">
         <v>2.87</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>652843</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>652846</v>
-      </c>
-      <c r="C29">
-        <v>3.43</v>
-      </c>
-      <c r="D29">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>652847</v>
-      </c>
-      <c r="C30">
-        <v>3.2</v>
-      </c>
-      <c r="D30">
+    <row r="51" spans="1:4" ht="15" thickBot="1">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="1">
+        <v>674656</v>
+      </c>
+      <c r="C51">
+        <v>3.6</v>
+      </c>
+      <c r="D51">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" thickBot="1">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="1">
+        <v>683110</v>
+      </c>
+      <c r="C52">
+        <v>3.03</v>
+      </c>
+      <c r="D52">
         <v>2.54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>652848</v>
-      </c>
-      <c r="C31">
-        <v>3.43</v>
-      </c>
-      <c r="D31">
-        <v>2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>652853</v>
-      </c>
-      <c r="C32">
-        <v>2.93</v>
-      </c>
-      <c r="D32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>652854</v>
-      </c>
-      <c r="C33">
-        <v>3.13</v>
-      </c>
-      <c r="D33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>652855</v>
-      </c>
-      <c r="C34">
-        <v>3.5</v>
-      </c>
-      <c r="D34">
-        <v>2.87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>652856</v>
-      </c>
-      <c r="C35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>652857</v>
-      </c>
-      <c r="C36">
-        <v>3.03</v>
-      </c>
-      <c r="D36">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>652858</v>
-      </c>
-      <c r="C37">
-        <v>3.1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>652860</v>
-      </c>
-      <c r="C38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>652864</v>
-      </c>
-      <c r="C39">
-        <v>3.13</v>
-      </c>
-      <c r="D39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>652865</v>
-      </c>
-      <c r="C40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>652866</v>
-      </c>
-      <c r="C41">
-        <v>2.95</v>
-      </c>
-      <c r="D41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>652867</v>
-      </c>
-      <c r="C42">
-        <v>3.5</v>
-      </c>
-      <c r="D42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>652868</v>
-      </c>
-      <c r="C43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>652869</v>
-      </c>
-      <c r="C44">
-        <v>3.3</v>
-      </c>
-      <c r="D44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>652870</v>
-      </c>
-      <c r="C45">
-        <v>3.13</v>
-      </c>
-      <c r="D45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>652877</v>
-      </c>
-      <c r="C46">
-        <v>2.95</v>
-      </c>
-      <c r="D46" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>652880</v>
-      </c>
-      <c r="C47">
-        <v>3.53</v>
-      </c>
-      <c r="D47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>652881</v>
-      </c>
-      <c r="C48">
-        <v>3.1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>652883</v>
-      </c>
-      <c r="C49">
-        <v>3.3</v>
-      </c>
-      <c r="D49">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>652884</v>
-      </c>
-      <c r="C50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>652885</v>
-      </c>
-      <c r="C51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
